--- a/IntroCompareDevices.xlsx
+++ b/IntroCompareDevices.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Name of Device</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Market Segments</t>
   </si>
   <si>
-    <t>Sensors</t>
-  </si>
-  <si>
-    <t>ADWMAT</t>
-  </si>
-  <si>
     <t>Health Monitor</t>
   </si>
   <si>
@@ -71,53 +65,173 @@
     <t>&lt; 24</t>
   </si>
   <si>
+    <t>Samsung Gear 2</t>
+  </si>
+  <si>
+    <t>Thalmic Labs Myo</t>
+  </si>
+  <si>
+    <t>Input Devices</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Gyroscope, Accelerometer, Phone Calls, LCD Screen, Media Player</t>
+  </si>
+  <si>
+    <t>Gyroscope, Accelerometer, Bluetooth Module</t>
+  </si>
+  <si>
+    <t>Gyroscope, Accelerometer, Display, Bluetooth Connectivity to phones</t>
+  </si>
+  <si>
+    <t>Gyroscope, Accelerometer, Display, Phone Calls, Bluetooth Connectivity</t>
+  </si>
+  <si>
+    <t>Gyroscope, Accelerometer, EMG Sensors</t>
+  </si>
+  <si>
+    <t>This Work</t>
+  </si>
+  <si>
+    <t>Programmability</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Fitbit Zip</t>
+  </si>
+  <si>
+    <t>Fitness Tracker</t>
+  </si>
+  <si>
+    <t>Fitbit Flex</t>
+  </si>
+  <si>
+    <t>Jawbone Up Move</t>
+  </si>
+  <si>
+    <t>Jawbone Up 3</t>
+  </si>
+  <si>
+    <t>Fitbit One</t>
+  </si>
+  <si>
+    <t>Body Position</t>
+  </si>
+  <si>
+    <t>Torso</t>
+  </si>
+  <si>
+    <t>Nike FuelBand</t>
+  </si>
+  <si>
+    <t>Waist / Torso / Wrist</t>
+  </si>
+  <si>
+    <t>Wrist</t>
+  </si>
+  <si>
+    <t>Torso / Waist</t>
+  </si>
+  <si>
+    <t>Handheld</t>
+  </si>
+  <si>
+    <t>Upper Arm</t>
+  </si>
+  <si>
+    <t>6 mo</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Accelerometer</t>
   </si>
   <si>
-    <t>Samsung Gear 2</t>
-  </si>
-  <si>
-    <t>Accelerometer, Gyroscope</t>
-  </si>
-  <si>
-    <t>Thalmic Labs Myo</t>
-  </si>
-  <si>
-    <t>Input Devices</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Gyroscope, Accelerometer, Phone Calls, LCD Screen, Media Player</t>
-  </si>
-  <si>
-    <t>Gyroscope, Accelerometer, Bluetooth Module</t>
-  </si>
-  <si>
-    <t>Gyroscope, Accelerometer, Display, Bluetooth Connectivity to phones</t>
-  </si>
-  <si>
-    <t>Gyroscope, Accelerometer, Display, Phone Calls, Bluetooth Connectivity</t>
-  </si>
-  <si>
-    <t>Gyroscope, Accelerometer, EMG Sensors</t>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>36 x  28 x 10</t>
+  </si>
+  <si>
+    <t>48 x 20 x  10</t>
+  </si>
+  <si>
+    <t>140 x 161 x 13.99</t>
+  </si>
+  <si>
+    <t>27.64 x 27.64 x 27.64</t>
+  </si>
+  <si>
+    <t>147 (circumference)</t>
+  </si>
+  <si>
+    <t>115.2 x 58.6 x 9.3</t>
+  </si>
+  <si>
+    <t>51 x 34 x 14</t>
+  </si>
+  <si>
+    <t>58.4 x 36.9 x 10</t>
+  </si>
+  <si>
+    <t>51 × 38 × 13</t>
+  </si>
+  <si>
+    <t>220 x 12.2 x 3.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF292929"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,8 +254,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,21 +541,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,121 +565,368 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>148.91</v>
+      </c>
+      <c r="F3" s="1">
+        <v>400</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>23.6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>249</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>81</v>
+      </c>
+      <c r="F5" s="1">
+        <v>249</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1">
+        <v>275</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1">
+        <v>149</v>
+      </c>
+      <c r="G7">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
+      <c r="F8" s="1">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1">
+        <v>99</v>
+      </c>
+      <c r="G9">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>6.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>168</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>168</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <v>240</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1">
+        <v>149</v>
+      </c>
+      <c r="G13">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>